--- a/src/test/resources/testSmall.xlsx
+++ b/src/test/resources/testSmall.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carla\Documents\Git\citizensLoader_i2a\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carla\Documents\Git\ASW\parti_i2a\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Nombre</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>C/ La playa 7</t>
+  </si>
+  <si>
+    <t>user@example.com</t>
+  </si>
+  <si>
+    <t>C/ Av. Rey</t>
+  </si>
+  <si>
+    <t>67843397H</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
 </sst>
 </file>
@@ -445,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,14 +600,41 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2">
+        <v>22194</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId6"/>
 </worksheet>
 </file>
--- a/src/test/resources/testSmall.xlsx
+++ b/src/test/resources/testSmall.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Nombre</t>
   </si>
@@ -116,16 +116,22 @@
     <t>C/ La playa 7</t>
   </si>
   <si>
-    <t>user@example.com</t>
-  </si>
-  <si>
-    <t>C/ Av. Rey</t>
-  </si>
-  <si>
-    <t>67843397H</t>
-  </si>
-  <si>
-    <t>User</t>
+    <t>Damien</t>
+  </si>
+  <si>
+    <t>Jurado</t>
+  </si>
+  <si>
+    <t>damien@example.com</t>
+  </si>
+  <si>
+    <t>Springfield</t>
+  </si>
+  <si>
+    <t>Estadounidense</t>
+  </si>
+  <si>
+    <t>67147342H</t>
   </si>
 </sst>
 </file>
@@ -460,7 +466,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,25 +608,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2">
+        <v>27308</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2">
-        <v>22194</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>1</v>
